--- a/Hotel Invoice Project.xlsx
+++ b/Hotel Invoice Project.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrawells/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrawells/Desktop/Polished for Publishing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E75FAE7-E285-A649-B128-3875D0E82C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD6185B-0EFE-E244-893A-D66A83B3FA2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="20660" windowHeight="15940" activeTab="1" xr2:uid="{808E3542-A903-A148-B15B-B4884C2FF87F}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="26980" windowHeight="15940" xr2:uid="{808E3542-A903-A148-B15B-B4884C2FF87F}"/>
   </bookViews>
   <sheets>
-    <sheet name="sample_data" sheetId="3" r:id="rId1"/>
-    <sheet name="AW-Invoice Hotel Williamson" sheetId="6" r:id="rId2"/>
+    <sheet name="raw_data" sheetId="3" r:id="rId1"/>
+    <sheet name="Invoice Hotel Williamson" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -178,16 +179,38 @@
   </si>
   <si>
     <t>Sub Total:</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>11/5/18</t>
+  </si>
+  <si>
+    <t>11/6/18</t>
+  </si>
+  <si>
+    <t>11/7/18</t>
+  </si>
+  <si>
+    <t>11/8/18</t>
+  </si>
+  <si>
+    <t>1886866201</t>
+  </si>
+  <si>
+    <t>Hotel Invoice Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,6 +259,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -257,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -464,15 +500,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -498,7 +605,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -508,7 +614,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -528,14 +633,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,18 +661,89 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -582,6 +754,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65BA97EF-1F71-8F4E-94AD-416D1995C7CE}" name="Table1" displayName="Table1" ref="B21:C24" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B21:C24" xr:uid="{3267F20F-D272-3943-AE88-BEB52117DA8E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{04182ADC-C4C1-844C-BFD7-A7AEF9187512}" name="Additional Expenses"/>
+    <tableColumn id="2" xr3:uid="{AA4AD2A0-8501-804D-99EE-5EB4D1A7CB01}" name="Column1" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{926D3832-EFE2-C648-83AC-6B591A668AE5}" name="Table3" displayName="Table3" ref="B16:F19" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="B16:F19" xr:uid="{EB0C30C1-7D32-F642-9701-20E6F43FC5BE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{60C8B93D-4550-7C4D-8D13-D49CB8B1A4AB}" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{1F185C49-798C-5F4C-8900-60CED06F060C}" name="11/5/18" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{591C6BF0-1C83-3549-9A5D-2C60324B29B1}" name="11/6/18" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{39FD04C8-E9C0-A64B-9EFC-88C7A3CA8C1C}" name="11/7/18" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{83624FB0-D58A-6147-B557-0B568FBE320E}" name="11/8/18" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{212EDA81-D470-B840-ACB4-91C5D8C1DFE4}" name="Table4" displayName="Table4" ref="B3:C14" totalsRowShown="0">
+  <autoFilter ref="B3:C14" xr:uid="{5CE14EDA-7DED-6E4B-BEBF-60C39A53023A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{59A0C353-7106-E147-AAF6-D503E21F156F}" name="Invoice Number"/>
+    <tableColumn id="2" xr3:uid="{5B17EEF4-F5FB-7342-9D9A-FCD608E05C93}" name="1886866201"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -881,220 +1089,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22386356-537A-4740-A8B7-9B4D50561878}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="2:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="G2" s="59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1886866201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="C11">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C12" s="1">
         <v>43409</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C13" s="1">
         <v>43413</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>43409</v>
-      </c>
-      <c r="C14" s="1">
-        <v>43410</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43411</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C17" s="57">
         <v>150.59</v>
       </c>
-      <c r="C15">
+      <c r="D17" s="57">
         <v>150.59</v>
       </c>
-      <c r="D15">
+      <c r="E17" s="57">
         <v>175.65</v>
       </c>
-      <c r="E15">
+      <c r="F17" s="57">
         <v>165.69</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <f>B15*0.0675</f>
+      <c r="C18" s="57">
+        <f>C17*0.0675</f>
         <v>10.164825</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" ref="C16:E16" si="0">C15*0.0675</f>
+      <c r="D18" s="57">
+        <f t="shared" ref="D18:F18" si="0">D17*0.0675</f>
         <v>10.164825</v>
       </c>
-      <c r="D16" s="2">
-        <f>D15*0.0675</f>
+      <c r="E18" s="57">
+        <f>E17*0.0675</f>
         <v>11.856375000000002</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F18" s="57">
         <f t="shared" si="0"/>
         <v>11.184075</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <f>B15*0.1</f>
+      <c r="C19" s="57">
+        <f>C17*0.1</f>
         <v>15.059000000000001</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17:E17" si="1">C15*0.1</f>
+      <c r="D19" s="57">
+        <f t="shared" ref="D19:F19" si="1">D17*0.1</f>
         <v>15.059000000000001</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E19" s="57">
         <f t="shared" si="1"/>
         <v>17.565000000000001</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F19" s="57">
         <f t="shared" si="1"/>
         <v>16.568999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="56" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C21" s="56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C22" s="58">
         <v>2.6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="C23" s="58">
         <v>25.75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="C24" s="58">
         <v>60.9</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{F7620190-C3A5-8D49-A769-2C18E0B4A2B8}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{F7620190-C3A5-8D49-A769-2C18E0B4A2B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1102,574 +1328,575 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3652E248-8DF2-094E-9252-B64C5369701E}">
   <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="8" width="20.83203125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="8" width="20.83203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="13"/>
+    <row r="2" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="37"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="42" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="47"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="37"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="37"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="37"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="37"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="21" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="37"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="37"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>43409</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="50" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="37"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>43413</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="37"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>4</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="37"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="37"/>
+      <c r="I14" s="47"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>1</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="37"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="37"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="37"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="37"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="48" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="37"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="26" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="37"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="27" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="16">
         <v>2.6</v>
       </c>
-      <c r="I21" s="37"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="27" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="16">
         <v>60.9</v>
       </c>
-      <c r="I22" s="37"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="28" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <v>25.75</v>
       </c>
-      <c r="I23" s="37"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="24" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="25" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="20">
         <f>SUM(H20:H23)</f>
         <v>89.25</v>
       </c>
-      <c r="I24" s="37"/>
+      <c r="I24" s="47"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="37"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="37"/>
+      <c r="I26" s="47"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="17">
+      <c r="A27" s="46"/>
+      <c r="B27" s="15">
         <v>43409</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>1</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <v>150.59</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <v>10.16</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="16">
         <v>15.06</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="16">
         <f>(SUM(E27:G27))</f>
         <v>175.81</v>
       </c>
-      <c r="I27" s="37"/>
+      <c r="I27" s="47"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="17">
+      <c r="A28" s="46"/>
+      <c r="B28" s="15">
         <v>43410</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <v>150.59</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <v>10.16</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="16">
         <v>15.06</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="16">
         <f>(SUM(E28:G28))</f>
         <v>175.81</v>
       </c>
-      <c r="I28" s="37"/>
+      <c r="I28" s="47"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="17">
+      <c r="A29" s="46"/>
+      <c r="B29" s="15">
         <v>43411</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>1</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <v>175.65</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <v>11.86</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="16">
         <v>17.57</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="16">
         <f>SUM(E29:G29)</f>
         <v>205.07999999999998</v>
       </c>
-      <c r="I29" s="37"/>
+      <c r="I29" s="47"/>
     </row>
     <row r="30" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="17">
+      <c r="A30" s="46"/>
+      <c r="B30" s="15">
         <v>43412</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="29">
         <v>1</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="27">
         <v>165.69</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="27">
         <v>11.18</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="27">
         <v>16.57</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="27">
         <f>SUM(E30:G30)</f>
         <v>193.44</v>
       </c>
-      <c r="I30" s="37"/>
+      <c r="I30" s="47"/>
     </row>
     <row r="31" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="33" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="31">
         <f>(SUM(E27:E30))</f>
         <v>642.52</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="31">
         <f>SUM(F27:F30)</f>
         <v>43.36</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="28">
         <f>SUM(G27:G30)</f>
         <v>64.259999999999991</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="28">
         <f>SUM(H27:H30)</f>
         <v>750.1400000000001</v>
       </c>
-      <c r="I31" s="37"/>
+      <c r="I31" s="47"/>
     </row>
     <row r="32" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="29" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <v>2.6</v>
       </c>
-      <c r="I32" s="37"/>
+      <c r="I32" s="47"/>
     </row>
     <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="24" t="s">
+      <c r="A33" s="46"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <f>SUM(H22:H23)</f>
         <v>86.65</v>
       </c>
-      <c r="I33" s="37"/>
+      <c r="I33" s="47"/>
     </row>
     <row r="34" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="25" t="s">
+      <c r="A34" s="46"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="20">
         <f>SUM(H31:H33)</f>
         <v>839.3900000000001</v>
       </c>
-      <c r="I34" s="37"/>
+      <c r="I34" s="47"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="37"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="47"/>
+    </row>
+    <row r="36" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="50"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="D4:F5"/>
     <mergeCell ref="G19:H19"/>
